--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\STOCK_Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBE88B9-B48A-4711-A726-FF1B0C92A9F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86B4F8-F885-450C-B6A5-56944C817556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$N$62</definedName>
   </definedNames>
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="184">
   <si>
     <t>Component description</t>
   </si>
@@ -589,9 +586,6 @@
   </si>
   <si>
     <t>Part-Type</t>
-  </si>
-  <si>
-    <t>BF</t>
   </si>
 </sst>
 </file>
@@ -715,428 +709,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>3000</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>3100</v>
-          </cell>
-          <cell r="B3">
-            <v>1255</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>493C</v>
-          </cell>
-          <cell r="B4">
-            <v>2418</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>1771</v>
-          </cell>
-          <cell r="B5">
-            <v>2547</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>0802</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2001</v>
-          </cell>
-          <cell r="B7">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2200</v>
-          </cell>
-          <cell r="B8">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>4600</v>
-          </cell>
-          <cell r="B9">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>0201</v>
-          </cell>
-          <cell r="B10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>4946</v>
-          </cell>
-          <cell r="B11">
-            <v>1482</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>9706</v>
-          </cell>
-          <cell r="B12">
-            <v>240</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>9708</v>
-          </cell>
-          <cell r="B13">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>5679</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>9524</v>
-          </cell>
-          <cell r="B15">
-            <v>942</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2102</v>
-          </cell>
-          <cell r="B16">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>6803</v>
-          </cell>
-          <cell r="B17">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>4900</v>
-          </cell>
-          <cell r="B18">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>5000</v>
-          </cell>
-          <cell r="B19">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>9910</v>
-          </cell>
-          <cell r="B20">
-            <v>862</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>9907</v>
-          </cell>
-          <cell r="B21">
-            <v>159</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>9112</v>
-          </cell>
-          <cell r="B22">
-            <v>201</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>9115</v>
-          </cell>
-          <cell r="B23">
-            <v>300</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>3102</v>
-          </cell>
-          <cell r="B24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>5402</v>
-          </cell>
-          <cell r="B25">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>7702</v>
-          </cell>
-          <cell r="B26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>1632</v>
-          </cell>
-          <cell r="B27">
-            <v>970</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>1732</v>
-          </cell>
-          <cell r="B28">
-            <v>1111</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>5130</v>
-          </cell>
-          <cell r="B29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>5230</v>
-          </cell>
-          <cell r="B30">
-            <v>68</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>5330</v>
-          </cell>
-          <cell r="B31">
-            <v>562</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>9231</v>
-          </cell>
-          <cell r="B32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>9330</v>
-          </cell>
-          <cell r="B33">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>2532</v>
-          </cell>
-          <cell r="B34">
-            <v>703</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>2633</v>
-          </cell>
-          <cell r="B35">
-            <v>450</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>4600</v>
-          </cell>
-          <cell r="B36">
-            <v>1875</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>2031</v>
-          </cell>
-          <cell r="B37">
-            <v>5003</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>0201</v>
-          </cell>
-          <cell r="B38">
-            <v>842</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>2102</v>
-          </cell>
-          <cell r="B39">
-            <v>905</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>6803</v>
-          </cell>
-          <cell r="B40">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>3132</v>
-          </cell>
-          <cell r="B41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>7702</v>
-          </cell>
-          <cell r="B42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>6832</v>
-          </cell>
-          <cell r="B43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>2798</v>
-          </cell>
-          <cell r="B44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>9680</v>
-          </cell>
-          <cell r="B45">
-            <v>142</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>9775</v>
-          </cell>
-          <cell r="B46">
-            <v>119</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>7053</v>
-          </cell>
-          <cell r="B47">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>7055</v>
-          </cell>
-          <cell r="B48">
-            <v>39</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>3113</v>
-          </cell>
-          <cell r="B49">
-            <v>409</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>T3100</v>
-          </cell>
-          <cell r="B50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>3113</v>
-          </cell>
-          <cell r="B51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>4900</v>
-          </cell>
-          <cell r="B52">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P62"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1055,7 @@
     <col min="15" max="15" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>157</v>
       </c>
@@ -1529,11 +1101,8 @@
       <c r="O1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1579,12 +1148,8 @@
       <c r="O2" t="s">
         <v>181</v>
       </c>
-      <c r="P2" t="e">
-        <f>VLOOKUP(B2,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1630,12 +1195,8 @@
       <c r="O3" t="s">
         <v>181</v>
       </c>
-      <c r="P3" t="e">
-        <f>VLOOKUP(B3,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1681,12 +1242,8 @@
       <c r="O4" t="s">
         <v>181</v>
       </c>
-      <c r="P4" t="e">
-        <f>VLOOKUP(B4,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1732,12 +1289,8 @@
       <c r="O5" t="s">
         <v>181</v>
       </c>
-      <c r="P5" t="e">
-        <f>VLOOKUP(B5,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1783,12 +1336,8 @@
       <c r="O6" t="s">
         <v>181</v>
       </c>
-      <c r="P6" t="e">
-        <f>VLOOKUP(B6,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1834,12 +1383,8 @@
       <c r="O7" t="s">
         <v>181</v>
       </c>
-      <c r="P7" t="e">
-        <f>VLOOKUP(B7,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1885,12 +1430,8 @@
       <c r="O8" t="s">
         <v>181</v>
       </c>
-      <c r="P8" t="e">
-        <f>VLOOKUP(B8,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1936,12 +1477,8 @@
       <c r="O9" t="s">
         <v>181</v>
       </c>
-      <c r="P9" t="e">
-        <f>VLOOKUP(B9,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1987,12 +1524,8 @@
       <c r="O10" t="s">
         <v>181</v>
       </c>
-      <c r="P10" t="e">
-        <f>VLOOKUP(B10,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -2038,12 +1571,8 @@
       <c r="O11" t="s">
         <v>181</v>
       </c>
-      <c r="P11" t="e">
-        <f>VLOOKUP(B11,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2089,12 +1618,8 @@
       <c r="O12" t="s">
         <v>181</v>
       </c>
-      <c r="P12" t="e">
-        <f>VLOOKUP(B12,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -2140,12 +1665,8 @@
       <c r="O13" t="s">
         <v>181</v>
       </c>
-      <c r="P13" t="e">
-        <f>VLOOKUP(B13,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2191,12 +1712,8 @@
       <c r="O14" t="s">
         <v>181</v>
       </c>
-      <c r="P14" t="e">
-        <f>VLOOKUP(B14,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -2242,12 +1759,8 @@
       <c r="O15" t="s">
         <v>181</v>
       </c>
-      <c r="P15" t="e">
-        <f>VLOOKUP(B15,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -2293,12 +1806,8 @@
       <c r="O16" t="s">
         <v>181</v>
       </c>
-      <c r="P16" t="e">
-        <f>VLOOKUP(B16,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -2344,12 +1853,8 @@
       <c r="O17" t="s">
         <v>181</v>
       </c>
-      <c r="P17" t="e">
-        <f>VLOOKUP(B17,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -2395,12 +1900,8 @@
       <c r="O18" t="s">
         <v>182</v>
       </c>
-      <c r="P18" t="e">
-        <f>VLOOKUP(B18,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2446,12 +1947,8 @@
       <c r="O19" t="s">
         <v>181</v>
       </c>
-      <c r="P19" t="e">
-        <f>VLOOKUP(B19,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2497,12 +1994,8 @@
       <c r="O20" t="s">
         <v>182</v>
       </c>
-      <c r="P20" t="e">
-        <f>VLOOKUP(B20,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2548,12 +2041,8 @@
       <c r="O21" t="s">
         <v>182</v>
       </c>
-      <c r="P21" t="e">
-        <f>VLOOKUP(B21,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2599,12 +2088,8 @@
       <c r="O22" t="s">
         <v>182</v>
       </c>
-      <c r="P22" t="e">
-        <f>VLOOKUP(B22,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2650,12 +2135,8 @@
       <c r="O23" t="s">
         <v>182</v>
       </c>
-      <c r="P23" t="e">
-        <f>VLOOKUP(B23,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2701,12 +2182,8 @@
       <c r="O24" t="s">
         <v>182</v>
       </c>
-      <c r="P24">
-        <f>VLOOKUP(B24,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2752,12 +2229,8 @@
       <c r="O25" t="s">
         <v>182</v>
       </c>
-      <c r="P25" t="e">
-        <f>VLOOKUP(B25,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,12 +2276,8 @@
       <c r="O26" t="s">
         <v>182</v>
       </c>
-      <c r="P26" t="e">
-        <f>VLOOKUP(B26,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2854,12 +2323,8 @@
       <c r="O27" t="s">
         <v>182</v>
       </c>
-      <c r="P27">
-        <f>VLOOKUP(B27,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2905,12 +2370,8 @@
       <c r="O28" t="s">
         <v>181</v>
       </c>
-      <c r="P28" t="e">
-        <f>VLOOKUP(B28,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2956,12 +2417,8 @@
       <c r="O29" t="s">
         <v>182</v>
       </c>
-      <c r="P29">
-        <f>VLOOKUP(B29,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3007,12 +2464,8 @@
       <c r="O30" t="s">
         <v>181</v>
       </c>
-      <c r="P30" t="e">
-        <f>VLOOKUP(B30,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -3058,12 +2511,8 @@
       <c r="O31" t="s">
         <v>182</v>
       </c>
-      <c r="P31" t="e">
-        <f>VLOOKUP(B31,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -3109,12 +2558,8 @@
       <c r="O32" t="s">
         <v>182</v>
       </c>
-      <c r="P32" t="e">
-        <f>VLOOKUP(B32,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -3160,12 +2605,8 @@
       <c r="O33" t="s">
         <v>182</v>
       </c>
-      <c r="P33" t="e">
-        <f>VLOOKUP(B33,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -3211,12 +2652,8 @@
       <c r="O34" t="s">
         <v>182</v>
       </c>
-      <c r="P34">
-        <f>VLOOKUP(B34,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,12 +2699,8 @@
       <c r="O35" t="s">
         <v>182</v>
       </c>
-      <c r="P35" t="e">
-        <f>VLOOKUP(B35,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
@@ -3313,12 +2746,8 @@
       <c r="O36" t="s">
         <v>182</v>
       </c>
-      <c r="P36">
-        <f>VLOOKUP(B36,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
@@ -3364,12 +2793,8 @@
       <c r="O37" t="s">
         <v>182</v>
       </c>
-      <c r="P37" t="e">
-        <f>VLOOKUP(B37,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
@@ -3415,12 +2840,8 @@
       <c r="O38" t="s">
         <v>181</v>
       </c>
-      <c r="P38" t="e">
-        <f>VLOOKUP(B38,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
@@ -3466,12 +2887,8 @@
       <c r="O39" t="s">
         <v>181</v>
       </c>
-      <c r="P39" t="e">
-        <f>VLOOKUP(B39,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
@@ -3517,12 +2934,8 @@
       <c r="O40" t="s">
         <v>182</v>
       </c>
-      <c r="P40">
-        <f>VLOOKUP(B40,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
@@ -3568,12 +2981,8 @@
       <c r="O41" t="s">
         <v>182</v>
       </c>
-      <c r="P41" t="e">
-        <f>VLOOKUP(B41,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
@@ -3619,12 +3028,8 @@
       <c r="O42" t="s">
         <v>181</v>
       </c>
-      <c r="P42" t="e">
-        <f>VLOOKUP(B42,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3670,12 +3075,8 @@
       <c r="O43" t="s">
         <v>181</v>
       </c>
-      <c r="P43" t="e">
-        <f>VLOOKUP(B43,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3721,12 +3122,8 @@
       <c r="O44" t="s">
         <v>181</v>
       </c>
-      <c r="P44" t="e">
-        <f>VLOOKUP(B44,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
@@ -3772,12 +3169,8 @@
       <c r="O45" t="s">
         <v>181</v>
       </c>
-      <c r="P45" t="e">
-        <f>VLOOKUP(B45,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -3823,12 +3216,8 @@
       <c r="O46" t="s">
         <v>182</v>
       </c>
-      <c r="P46" t="e">
-        <f>VLOOKUP(B46,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
@@ -3874,12 +3263,8 @@
       <c r="O47" t="s">
         <v>181</v>
       </c>
-      <c r="P47" t="e">
-        <f>VLOOKUP(B47,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3925,12 +3310,8 @@
       <c r="O48" t="s">
         <v>181</v>
       </c>
-      <c r="P48" t="e">
-        <f>VLOOKUP(B48,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -3976,12 +3357,8 @@
       <c r="O49" t="s">
         <v>181</v>
       </c>
-      <c r="P49" t="e">
-        <f>VLOOKUP(B49,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -4027,12 +3404,8 @@
       <c r="O50" t="s">
         <v>181</v>
       </c>
-      <c r="P50" t="e">
-        <f>VLOOKUP(B50,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>57</v>
       </c>
@@ -4078,12 +3451,8 @@
       <c r="O51" t="s">
         <v>181</v>
       </c>
-      <c r="P51" t="e">
-        <f>VLOOKUP(B51,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>58</v>
       </c>
@@ -4129,12 +3498,8 @@
       <c r="O52" t="s">
         <v>182</v>
       </c>
-      <c r="P52" t="e">
-        <f>VLOOKUP(B52,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
@@ -4180,12 +3545,8 @@
       <c r="O53" t="s">
         <v>182</v>
       </c>
-      <c r="P53" t="e">
-        <f>VLOOKUP(B53,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>60</v>
       </c>
@@ -4231,12 +3592,8 @@
       <c r="O54" t="s">
         <v>182</v>
       </c>
-      <c r="P54" t="e">
-        <f>VLOOKUP(B54,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -4282,12 +3639,8 @@
       <c r="O55" t="s">
         <v>182</v>
       </c>
-      <c r="P55" t="e">
-        <f>VLOOKUP(B55,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -4333,12 +3686,8 @@
       <c r="O56" t="s">
         <v>181</v>
       </c>
-      <c r="P56" t="e">
-        <f>VLOOKUP(B56,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -4384,12 +3733,8 @@
       <c r="O57" t="s">
         <v>182</v>
       </c>
-      <c r="P57">
-        <f>VLOOKUP(B57,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -4435,12 +3780,8 @@
       <c r="O58" t="s">
         <v>182</v>
       </c>
-      <c r="P58">
-        <f>VLOOKUP(B58,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -4486,12 +3827,8 @@
       <c r="O59" t="s">
         <v>181</v>
       </c>
-      <c r="P59">
-        <f>VLOOKUP(B59,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -4537,12 +3874,8 @@
       <c r="O60" t="s">
         <v>181</v>
       </c>
-      <c r="P60">
-        <f>VLOOKUP(B60,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -4588,12 +3921,8 @@
       <c r="O61" t="s">
         <v>181</v>
       </c>
-      <c r="P61">
-        <f>VLOOKUP(B61,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -4638,10 +3967,6 @@
       </c>
       <c r="O62" t="s">
         <v>181</v>
-      </c>
-      <c r="P62">
-        <f>VLOOKUP(B62,[1]Sheet1!$A$2:$B$52,2,FALSE)</f>
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\STOCK_Update\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Planing-Stock-EDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D86B4F8-F885-450C-B6A5-56944C817556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C440B-65F6-4063-A749-0394C04EB6FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
